--- a/Instances/K5014255_NonStationary_b2_fe25_el_rk25_ll2_l20_HTrue_c10.xlsx
+++ b/Instances/K5014255_NonStationary_b2_fe25_el_rk25_ll2_l20_HTrue_c10.xlsx
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>16.25237341225147</v>
+        <v>19.52189628894513</v>
       </c>
       <c r="I2" t="n">
         <v>272</v>
@@ -1050,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1804,111 +1804,6 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>110</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>99</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>103</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1923,7 +1818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,34 +1933,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2073,34 +1968,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>16.875</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2108,34 +2003,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>22.96875</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2143,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>26.33203125</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2178,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17.8125</v>
+        <v>27.1435546875</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2213,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.84375</v>
+        <v>25.724853515625</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2248,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.53125</v>
+        <v>29.4927978515625</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2283,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.388671875</v>
+        <v>29.49819946289062</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2318,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>30.47021484375</v>
+        <v>27.74957656860352</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2353,7 +2248,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.99365234375</v>
+        <v>22.99991226196289</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2388,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24.99847412109375</v>
+        <v>24.99997615814209</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2415,111 +2310,6 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>27.49958038330078</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>24.74990558624268</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>25.74997544288635</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2160</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2560,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4320</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2568,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4320</v>
+        <v>4200</v>
       </c>
     </row>
   </sheetData>
